--- a/data/HorariosReuniones.xlsx
+++ b/data/HorariosReuniones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/05. Seguimiento proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6CEE3C9-844F-4DBC-8D64-7638A031A875}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FAE998D-3530-4C07-8555-A705BC58BA59}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3180" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,6 +1016,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,23 +1034,118 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2248F3E5-44DC-41D9-8904-19A66665F065}"/>
   </tableStyles>
@@ -1082,6 +1186,23 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Paola Andrea Ramirez Jimenez" id="{AF1D05DE-1710-411A-99E9-8F5AE36DFE73}" userId="S::pramirez@marval.com.co::acf46b5e-f380-44a7-b106-bd0f03cc5db1" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92E18A01-9559-420E-BDD9-32D99F48FA13}" name="Tabla1" displayName="Tabla1" ref="A1:H58" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
+  <autoFilter ref="A1:H58" xr:uid="{92E18A01-9559-420E-BDD9-32D99F48FA13}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FE429965-B714-4095-9C01-37342F915E3C}" name="SUCURSAL" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D2082CF3-B8CA-4A22-8130-7D597A7B2A18}" name="PRACTICANTE" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{233CDB38-9BE1-45E1-A4FA-E41DA83893E4}" name="GERENTE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{AB8A919A-7279-4F7D-8A08-BD31B949D9FD}" name="PROYECTO" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{6668A19B-7B3A-4DB8-AAAE-7FBE56678721}" name="DÍA INTERMEDIA" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{ECEA040B-3D6E-4DEA-A527-5E103B5638B1}" name="HORA INTERMEDIA" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{007F5535-EAE9-4D15-B5A1-05B102D0505C}" name="DÍA SEMANAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4493EC36-1288-4928-BFCA-FDDD01FE6FAC}" name="HORA SEMANAL" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,14 +1547,14 @@
       <c r="C1" s="16"/>
       <c r="D1" s="40"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="54"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
@@ -2139,14 +2260,14 @@
       <c r="C1" s="16"/>
       <c r="D1" s="40"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="54"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
@@ -2881,1331 +3002,1402 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" style="57"/>
-    <col min="14" max="14" width="29" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.44140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="57"/>
+    <col min="1" max="1" width="14.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="53" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="53" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="53" customWidth="1"/>
+    <col min="9" max="13" width="11.5546875" style="53"/>
+    <col min="14" max="14" width="29" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="60">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="60">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="60" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="60">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="60" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="60" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="57" t="s">
+      <c r="B13" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="60" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="60" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="60" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="60" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="57" t="s">
+      <c r="B24" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="F26" s="59"/>
+      <c r="G26" s="59" t="s">
         <v>9</v>
       </c>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="57" t="s">
+      <c r="B27" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="59" t="s">
         <v>7</v>
       </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="F28" s="59"/>
+      <c r="G28" s="59" t="s">
         <v>13</v>
       </c>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="57" t="s">
+      <c r="B29" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="F29" s="59"/>
+      <c r="G29" s="59" t="s">
         <v>7</v>
       </c>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="F30" s="59"/>
+      <c r="G30" s="59" t="s">
         <v>12</v>
       </c>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="57" t="s">
+      <c r="B31" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="F31" s="59"/>
+      <c r="G31" s="59" t="s">
         <v>8</v>
       </c>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="57" t="s">
+      <c r="B32" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="F32" s="59"/>
+      <c r="G32" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="57" t="s">
+      <c r="B33" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="F33" s="59"/>
+      <c r="G33" s="59" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="57" t="s">
+      <c r="B34" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="F34" s="59"/>
+      <c r="G34" s="59" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="57" t="s">
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="57" t="s">
+      <c r="B35" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="F35" s="59"/>
+      <c r="G35" s="59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="57" t="s">
+      <c r="B36" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="57" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
+      <c r="H36" s="59"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="57" t="s">
+      <c r="B37" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="57" t="s">
+      <c r="F37" s="59"/>
+      <c r="G37" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="57" t="s">
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="57" t="s">
+      <c r="B38" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="F38" s="59"/>
+      <c r="G38" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="57" t="s">
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="57" t="s">
+      <c r="B39" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="57" t="s">
+      <c r="F39" s="59"/>
+      <c r="G39" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="57" t="s">
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="57" t="s">
+      <c r="B40" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="F40" s="59"/>
+      <c r="G40" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="57" t="s">
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="57" t="s">
+      <c r="B41" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="F41" s="59"/>
+      <c r="G41" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
+      <c r="H41" s="59"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="F42" s="59"/>
+      <c r="G42" s="59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="57" t="s">
+      <c r="H42" s="59"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="57" t="s">
+      <c r="B43" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="57" t="s">
+      <c r="F43" s="59"/>
+      <c r="G43" s="59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="57" t="s">
+      <c r="H43" s="59"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="57" t="s">
+      <c r="B44" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="E44" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="57" t="s">
+      <c r="F44" s="59"/>
+      <c r="G44" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="57" t="s">
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="57" t="s">
+      <c r="B45" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="F45" s="59"/>
+      <c r="G45" s="59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="57" t="s">
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="57" t="s">
+      <c r="B46" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="57" t="s">
+      <c r="F46" s="59"/>
+      <c r="G46" s="59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="57" t="s">
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="57" t="s">
+      <c r="B47" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="F47" s="59"/>
+      <c r="G47" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="57" t="s">
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="57" t="s">
+      <c r="B48" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="57" t="s">
+      <c r="F48" s="59"/>
+      <c r="G48" s="59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
+      <c r="H48" s="59"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="57" t="s">
+      <c r="B49" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="57" t="s">
+      <c r="F49" s="59"/>
+      <c r="G49" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="57" t="s">
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="57" t="s">
+      <c r="B50" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="F50" s="59"/>
+      <c r="G50" s="59" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="57" t="s">
+      <c r="H50" s="59"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="57" t="s">
+      <c r="B51" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="F51" s="59"/>
+      <c r="G51" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="57" t="s">
+      <c r="H51" s="59"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="57" t="s">
+      <c r="B52" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="57" t="s">
+      <c r="F52" s="59"/>
+      <c r="G52" s="59" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="57" t="s">
+      <c r="H52" s="59"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="57" t="s">
+      <c r="B53" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="57" t="s">
+      <c r="F53" s="59"/>
+      <c r="G53" s="59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="57" t="s">
+      <c r="H53" s="59"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="57" t="s">
+      <c r="B54" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="E54" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="57" t="s">
+      <c r="F54" s="59"/>
+      <c r="G54" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="57" t="s">
+      <c r="H54" s="59"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="57" t="s">
+      <c r="B55" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="57" t="s">
+      <c r="F55" s="59"/>
+      <c r="G55" s="59" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="57" t="s">
+      <c r="H55" s="59"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="57" t="s">
+      <c r="B56" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="57" t="s">
+      <c r="F56" s="59"/>
+      <c r="G56" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="57" t="s">
+      <c r="H56" s="59"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="57" t="s">
+      <c r="B57" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="57" t="s">
+      <c r="F57" s="59"/>
+      <c r="G57" s="59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="57" t="s">
+      <c r="H57" s="59"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="57" t="s">
+      <c r="B58" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="57" t="s">
+      <c r="F58" s="59"/>
+      <c r="G58" s="59" t="s">
         <v>10</v>
       </c>
+      <c r="H58" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
